--- a/Spelling bee 2026.xlsx
+++ b/Spelling bee 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIUJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC24D96-EC59-4CC4-8896-EBFC71D4F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F6968-418D-4420-A51D-4F5FE63F7F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14180,16 +14180,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ombre ombré</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Refers to a pattern in which colours or tones fade into one another.
 </t>
     </r>
@@ -21164,16 +21154,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>utopia Utopia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Any real or imaginary society considered to be near-perfect or ideal.
 </t>
     </r>
@@ -22554,6 +22534,12 @@
   </si>
   <si>
     <t>wrest</t>
+  </si>
+  <si>
+    <t>ombre</t>
+  </si>
+  <si>
+    <t>Utopia</t>
   </si>
 </sst>
 </file>
@@ -23170,8 +23156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="B379" sqref="B379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23252,7 +23238,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -23263,7 +23249,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
@@ -23637,7 +23623,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>80</v>
@@ -23648,7 +23634,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>81</v>
@@ -23659,7 +23645,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>82</v>
@@ -23670,7 +23656,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>83</v>
@@ -23681,7 +23667,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>84</v>
@@ -23692,7 +23678,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>85</v>
@@ -23714,7 +23700,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>88</v>
@@ -23802,7 +23788,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>103</v>
@@ -24044,7 +24030,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>146</v>
@@ -24176,7 +24162,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>169</v>
@@ -24517,7 +24503,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>230</v>
@@ -24539,7 +24525,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>233</v>
@@ -24825,7 +24811,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>284</v>
@@ -24946,7 +24932,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>305</v>
@@ -25012,7 +24998,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>316</v>
@@ -25100,7 +25086,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>331</v>
@@ -25551,7 +25537,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>412</v>
@@ -25573,7 +25559,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>415</v>
@@ -25716,7 +25702,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>440</v>
@@ -25892,7 +25878,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>471</v>
@@ -25968,11 +25954,11 @@
       <c r="A254" s="8">
         <v>253</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -25980,10 +25966,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -25991,10 +25977,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26002,10 +25988,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26013,10 +25999,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26024,10 +26010,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26035,10 +26021,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26046,10 +26032,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26057,10 +26043,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26068,10 +26054,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="103.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26079,10 +26065,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26090,10 +26076,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26101,10 +26087,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C266" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26112,10 +26098,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26123,10 +26109,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26134,10 +26120,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26145,10 +26131,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26156,10 +26142,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C271" s="6" t="s">
         <v>514</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26167,10 +26153,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C272" s="6" t="s">
         <v>516</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26178,10 +26164,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26189,10 +26175,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C274" s="6" t="s">
         <v>520</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26200,10 +26186,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26211,10 +26197,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26222,10 +26208,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26233,10 +26219,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C278" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26244,10 +26230,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C279" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26255,10 +26241,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C280" s="6" t="s">
         <v>532</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26266,10 +26252,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C281" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26277,10 +26263,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C282" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26288,10 +26274,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="C283" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26299,10 +26285,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26310,10 +26296,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26321,10 +26307,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26332,10 +26318,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C287" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26343,10 +26329,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C288" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26354,10 +26340,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C289" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26365,10 +26351,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="C290" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26376,10 +26362,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26387,10 +26373,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -26398,10 +26384,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C293" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26409,10 +26395,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26420,10 +26406,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C295" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26431,10 +26417,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26442,10 +26428,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C297" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26453,10 +26439,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26464,10 +26450,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C299" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26475,10 +26461,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C300" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26486,10 +26472,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26497,10 +26483,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26508,10 +26494,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C303" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26519,10 +26505,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C304" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26530,10 +26516,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C305" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26541,10 +26527,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="C306" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26552,10 +26538,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26563,10 +26549,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C308" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26574,10 +26560,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26585,10 +26571,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C310" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26596,10 +26582,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C311" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26607,10 +26593,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C312" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26618,10 +26604,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26629,10 +26615,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26640,10 +26626,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26651,10 +26637,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C316" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="C316" s="6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26662,10 +26648,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C317" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="C317" s="6" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26673,10 +26659,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C318" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26684,10 +26670,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C319" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26695,10 +26681,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C320" s="6" t="s">
         <v>609</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26706,10 +26692,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C321" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26717,10 +26703,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C322" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26728,10 +26714,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26739,10 +26725,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="44.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26750,10 +26736,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26761,10 +26747,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26772,10 +26758,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26783,10 +26769,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26794,10 +26780,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="88.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26805,10 +26791,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26816,10 +26802,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="C331" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26827,10 +26813,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C332" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26838,10 +26824,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="C333" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26849,10 +26835,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C334" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26860,10 +26846,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C335" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="45.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26871,10 +26857,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C336" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26882,10 +26868,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C337" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26893,10 +26879,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C338" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26904,10 +26890,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C339" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26915,10 +26901,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C340" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26926,10 +26912,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="C341" s="6" t="s">
         <v>648</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26937,10 +26923,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="C342" s="6" t="s">
         <v>650</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26948,10 +26934,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="C343" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26959,10 +26945,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26970,10 +26956,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C345" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="102.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26981,10 +26967,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="C346" s="6" t="s">
         <v>658</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -26992,10 +26978,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C347" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27003,10 +26989,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="C348" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27014,10 +27000,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C349" s="6" t="s">
         <v>664</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27025,10 +27011,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="C350" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27036,10 +27022,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C351" s="6" t="s">
         <v>668</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -27047,10 +27033,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="C352" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27058,10 +27044,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C353" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27069,10 +27055,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="C354" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27080,10 +27066,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C355" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27091,10 +27077,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="C356" s="6" t="s">
         <v>678</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27102,10 +27088,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C357" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27113,10 +27099,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27124,10 +27110,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C359" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27135,10 +27121,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="C360" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27146,10 +27132,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="C361" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27157,10 +27143,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C362" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27168,10 +27154,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C363" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27179,10 +27165,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C364" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -27190,10 +27176,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="C365" s="6" t="s">
         <v>695</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27201,10 +27187,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C366" s="6" t="s">
         <v>697</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27212,10 +27198,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C367" s="6" t="s">
         <v>699</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27223,10 +27209,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>701</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27234,10 +27220,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27245,10 +27231,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27256,10 +27242,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C371" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27267,10 +27253,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27278,10 +27264,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C373" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27289,10 +27275,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C374" s="6" t="s">
         <v>713</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -27300,10 +27286,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C375" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27311,10 +27297,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="C376" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27322,21 +27308,21 @@
         <v>376</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
         <v>377</v>
       </c>
-      <c r="B378" s="5" t="s">
-        <v>720</v>
+      <c r="B378" s="9" t="s">
+        <v>801</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27344,10 +27330,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27355,10 +27341,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="102.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27366,10 +27352,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27377,10 +27363,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27388,10 +27374,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27399,10 +27385,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27410,10 +27396,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27421,10 +27407,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27432,10 +27418,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27443,10 +27429,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27454,10 +27440,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27465,10 +27451,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27476,10 +27462,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -27487,10 +27473,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27498,10 +27484,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27509,10 +27495,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27520,10 +27506,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27531,10 +27517,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27542,10 +27528,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27553,10 +27539,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27564,10 +27550,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27575,10 +27561,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -27586,10 +27572,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/Spelling bee 2026.xlsx
+++ b/Spelling bee 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIUJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F6968-418D-4420-A51D-4F5FE63F7F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE004C9-E957-4181-B5D2-E80991496802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11368,16 +11368,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>irenic eirenic</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">Tending to promote peace or reconciliation. </t>
     </r>
     <r>
@@ -22540,6 +22530,9 @@
   </si>
   <si>
     <t>Utopia</t>
+  </si>
+  <si>
+    <t>irenic</t>
   </si>
 </sst>
 </file>
@@ -23156,8 +23149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="B379" sqref="B379"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="E205" sqref="E205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23238,7 +23231,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>12</v>
@@ -23249,7 +23242,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>13</v>
@@ -23623,7 +23616,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>80</v>
@@ -23634,7 +23627,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>81</v>
@@ -23645,7 +23638,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>82</v>
@@ -23656,7 +23649,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>83</v>
@@ -23667,7 +23660,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>84</v>
@@ -23678,7 +23671,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>85</v>
@@ -23700,7 +23693,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>88</v>
@@ -23788,7 +23781,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>103</v>
@@ -24030,7 +24023,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>146</v>
@@ -24162,7 +24155,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>169</v>
@@ -24503,7 +24496,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>230</v>
@@ -24525,7 +24518,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>233</v>
@@ -24811,7 +24804,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>284</v>
@@ -24932,7 +24925,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>305</v>
@@ -24998,7 +24991,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>316</v>
@@ -25086,7 +25079,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>331</v>
@@ -25404,11 +25397,11 @@
       <c r="A204" s="8">
         <v>203</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25416,10 +25409,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -25427,10 +25420,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25438,10 +25431,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25449,10 +25442,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25460,10 +25453,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25471,10 +25464,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25482,10 +25475,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25493,10 +25486,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25504,10 +25497,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25515,10 +25508,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25526,10 +25519,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25537,10 +25530,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25548,10 +25541,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -25559,10 +25552,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25570,10 +25563,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25581,10 +25574,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25592,10 +25585,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -25603,10 +25596,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25614,10 +25607,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25625,10 +25618,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25636,10 +25629,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C225" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -25647,10 +25640,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25658,10 +25651,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>432</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -25669,10 +25662,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25680,10 +25673,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="60.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25691,10 +25684,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25702,10 +25695,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -25713,10 +25706,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25724,10 +25717,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25735,10 +25728,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25746,10 +25739,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C235" s="6" t="s">
         <v>447</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25757,10 +25750,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C236" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25768,10 +25761,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C237" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -25779,10 +25772,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25790,10 +25783,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C239" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25801,10 +25794,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25812,10 +25805,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C241" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -25823,10 +25816,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25834,10 +25827,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C243" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25845,10 +25838,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C244" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="82.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -25856,10 +25849,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -25867,10 +25860,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25878,10 +25871,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25889,10 +25882,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25900,10 +25893,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -25911,10 +25904,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25922,10 +25915,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -25933,10 +25926,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25944,10 +25937,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25955,10 +25948,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -25966,10 +25959,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -25977,10 +25970,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25988,10 +25981,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25999,10 +25992,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>490</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26010,10 +26003,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26021,10 +26014,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26032,10 +26025,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26043,10 +26036,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26054,10 +26047,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="103.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26065,10 +26058,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>500</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26076,10 +26069,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26087,10 +26080,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C266" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26098,10 +26091,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26109,10 +26102,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26120,10 +26113,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26131,10 +26124,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26142,10 +26135,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="C271" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26153,10 +26146,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C272" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26164,10 +26157,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26175,10 +26168,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C274" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26186,10 +26179,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26197,10 +26190,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26208,10 +26201,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26219,10 +26212,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C278" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26230,10 +26223,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C279" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26241,10 +26234,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C280" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26252,10 +26245,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C281" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26263,10 +26256,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C282" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26274,10 +26267,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C283" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26285,10 +26278,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26296,10 +26289,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26307,10 +26300,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26318,10 +26311,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C287" s="6" t="s">
         <v>544</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26329,10 +26322,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C288" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26340,10 +26333,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C289" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26351,10 +26344,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C290" s="6" t="s">
         <v>550</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26362,10 +26355,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26373,10 +26366,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -26384,10 +26377,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C293" s="6" t="s">
         <v>556</v>
-      </c>
-      <c r="C293" s="6" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26395,10 +26388,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="C294" s="6" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26406,10 +26399,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="C295" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="C295" s="6" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26417,10 +26410,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="C296" s="6" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26428,10 +26421,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C297" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="C297" s="6" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26439,10 +26432,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="C298" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26450,10 +26443,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C299" s="6" t="s">
         <v>568</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26461,10 +26454,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="C300" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26472,10 +26465,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26483,10 +26476,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26494,10 +26487,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C303" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26505,10 +26498,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C304" s="6" t="s">
         <v>578</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26516,10 +26509,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="C305" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26527,10 +26520,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C306" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26538,10 +26531,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26549,10 +26542,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C308" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26560,10 +26553,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C309" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="C309" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26571,10 +26564,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="C310" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="C310" s="6" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26582,10 +26575,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C311" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26593,10 +26586,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C312" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="C312" s="6" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="74.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26604,10 +26597,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C313" s="6" t="s">
         <v>595</v>
-      </c>
-      <c r="C313" s="6" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26615,10 +26608,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C314" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="C314" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26626,10 +26619,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26637,10 +26630,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C316" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="C316" s="6" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26648,10 +26641,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C317" s="6" t="s">
         <v>602</v>
-      </c>
-      <c r="C317" s="6" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26659,10 +26652,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C318" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="C318" s="6" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26670,10 +26663,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C319" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="C319" s="6" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26681,10 +26674,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C320" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="C320" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26692,10 +26685,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C321" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26703,10 +26696,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C322" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26714,10 +26707,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26725,10 +26718,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C324" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="44.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -26736,10 +26729,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C325" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26747,10 +26740,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="C326" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26758,10 +26751,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26769,10 +26762,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26780,10 +26773,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C329" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="88.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -26791,10 +26784,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C330" s="6" t="s">
         <v>625</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26802,10 +26795,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="C331" s="6" t="s">
         <v>627</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -26813,10 +26806,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C332" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26824,10 +26817,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C333" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26835,10 +26828,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C334" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26846,10 +26839,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C335" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="45.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26857,10 +26850,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C336" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26868,10 +26861,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="C337" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26879,10 +26872,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C338" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="C338" s="6" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26890,10 +26883,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C339" s="6" t="s">
         <v>643</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26901,10 +26894,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C340" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26912,10 +26905,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C341" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26923,10 +26916,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C342" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26934,10 +26927,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C343" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -26945,10 +26938,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="C344" s="6" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26956,10 +26949,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="C345" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="102.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -26967,10 +26960,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C346" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -26978,10 +26971,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="C347" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26989,10 +26982,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C348" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27000,10 +26993,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C349" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27011,10 +27004,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C350" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27022,10 +27015,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="C351" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="C351" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -27033,10 +27026,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C352" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27044,10 +27037,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C353" s="6" t="s">
         <v>671</v>
-      </c>
-      <c r="C353" s="6" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27055,10 +27048,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="C354" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="C354" s="6" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27066,10 +27059,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="C355" s="6" t="s">
         <v>675</v>
-      </c>
-      <c r="C355" s="6" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27077,10 +27070,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C356" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="C356" s="6" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27088,10 +27081,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="C357" s="6" t="s">
         <v>679</v>
-      </c>
-      <c r="C357" s="6" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="87.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27099,10 +27092,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27110,10 +27103,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="C359" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27121,10 +27114,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C360" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27132,10 +27125,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C361" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27143,10 +27136,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C362" s="6" t="s">
         <v>688</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="88.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27154,10 +27147,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C363" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="C363" s="6" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27165,10 +27158,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C364" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -27176,10 +27169,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="C365" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27187,10 +27180,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C366" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27198,10 +27191,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="C367" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27209,10 +27202,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27220,10 +27213,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27231,10 +27224,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27242,10 +27235,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C371" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="C371" s="6" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27253,10 +27246,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27264,10 +27257,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C373" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27275,10 +27268,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C374" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -27286,10 +27279,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C375" s="6" t="s">
         <v>714</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27297,10 +27290,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C376" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="C376" s="6" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27308,10 +27301,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27319,10 +27312,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27330,10 +27323,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C379" s="6" t="s">
         <v>720</v>
-      </c>
-      <c r="C379" s="6" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27341,10 +27334,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="102.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27352,10 +27345,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C381" s="6" t="s">
         <v>723</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27363,10 +27356,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="C382" s="6" t="s">
         <v>725</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27374,10 +27367,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27385,10 +27378,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27396,10 +27389,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>729</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27407,10 +27400,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="C386" s="6" t="s">
         <v>731</v>
-      </c>
-      <c r="C386" s="6" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27418,10 +27411,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="C387" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27429,10 +27422,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="C388" s="6" t="s">
         <v>735</v>
-      </c>
-      <c r="C388" s="6" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27440,10 +27433,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C389" s="6" t="s">
         <v>737</v>
-      </c>
-      <c r="C389" s="6" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27451,10 +27444,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27462,10 +27455,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C391" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="C391" s="6" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -27473,10 +27466,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C392" s="6" t="s">
         <v>742</v>
-      </c>
-      <c r="C392" s="6" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27484,10 +27477,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C393" s="6" t="s">
         <v>744</v>
-      </c>
-      <c r="C393" s="6" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="43.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27495,10 +27488,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C394" s="6" t="s">
         <v>746</v>
-      </c>
-      <c r="C394" s="6" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -27506,10 +27499,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C395" s="6" t="s">
         <v>748</v>
-      </c>
-      <c r="C395" s="6" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27517,10 +27510,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="C396" s="6" t="s">
         <v>750</v>
-      </c>
-      <c r="C396" s="6" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -27528,10 +27521,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C397" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27539,10 +27532,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -27550,10 +27543,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C399" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="C399" s="6" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="58.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27561,10 +27554,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C400" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="C400" s="6" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -27572,10 +27565,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="C401" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="C401" s="6" t="s">
-        <v>760</v>
       </c>
     </row>
   </sheetData>
